--- a/public/files/clientes-base.xlsx
+++ b/public/files/clientes-base.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\comerciocity\excels base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Apellido</t>
+    <t>Telefono</t>
   </si>
   <si>
     <t>Direccion</t>
   </si>
   <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Condicion de IVA</t>
+  </si>
+  <si>
+    <t>Razon social</t>
+  </si>
+  <si>
     <t>Cuit</t>
-  </si>
-  <si>
-    <t>Iva</t>
   </si>
 </sst>
 </file>
@@ -93,112 +102,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3876674" y="38100"/>
-          <a:ext cx="2819401" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>Para la columna IVA colocar los siguientes</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t> numeros dependiendo la categoria:</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>1 para</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t> "Responsable inscripto".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t>2 para "Monotributista".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t>3 para "Consumidor final".</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Nombre"/>
-    <tableColumn id="2" name="Apellido"/>
+    <tableColumn id="2" name="Telefono"/>
     <tableColumn id="3" name="Direccion"/>
-    <tableColumn id="4" name="Cuit"/>
-    <tableColumn id="5" name="Iva"/>
+    <tableColumn id="4" name="Localidad"/>
+    <tableColumn id="5" name="Email"/>
+    <tableColumn id="6" name="Condicion de IVA"/>
+    <tableColumn id="7" name="Razon social"/>
+    <tableColumn id="8" name="Cuit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,18 +382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,13 +408,21 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/files/clientes-base.xlsx
+++ b/public/files/clientes-base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\comerciocity\excels base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nombre</t>
   </si>
@@ -41,13 +41,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Condicion de IVA</t>
+    <t>Condicion frente al iva</t>
   </si>
   <si>
     <t>Razon social</t>
   </si>
   <si>
     <t>Cuit</t>
+  </si>
+  <si>
+    <t>Saldo actual</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Tipo de precio</t>
   </si>
 </sst>
 </file>
@@ -103,17 +112,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:K2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Telefono"/>
     <tableColumn id="3" name="Direccion"/>
     <tableColumn id="4" name="Localidad"/>
     <tableColumn id="5" name="Email"/>
-    <tableColumn id="6" name="Condicion de IVA"/>
+    <tableColumn id="6" name="Condicion frente al iva"/>
     <tableColumn id="7" name="Razon social"/>
     <tableColumn id="8" name="Cuit"/>
+    <tableColumn id="9" name="Saldo actual"/>
+    <tableColumn id="10" name="Descripcion"/>
+    <tableColumn id="11" name="Tipo de precio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -382,18 +394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="12" customWidth="1"/>
+    <col min="1" max="9" width="12" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,6 +430,15 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
